--- a/bots/crawl_ch/output/bread_coop_2022-08-02.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-08-02.xlsx
@@ -585,7 +585,7 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -1123,7 +1123,7 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -4105,7 +4105,7 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -4711,7 +4711,7 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -5167,7 +5167,7 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -5319,7 +5319,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -5393,7 +5393,7 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -5701,7 +5701,7 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -5931,7 +5931,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -6005,7 +6005,7 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -6083,7 +6083,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -6239,7 +6239,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -6313,7 +6313,7 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -6387,7 +6387,7 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -6465,7 +6465,7 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -6539,7 +6539,7 @@
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -6613,7 +6613,7 @@
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -6687,7 +6687,7 @@
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -6843,7 +6843,7 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -6917,7 +6917,7 @@
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -7229,7 +7229,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -7385,7 +7385,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -7459,7 +7459,7 @@
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -7533,33 +7533,33 @@
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>5620342</t>
+          <t>3041123</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Betty Bossi Pizzateig</t>
+          <t>Naturaplan Bio Pumpernickel</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pizzateig/p/5620342</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/naturaplan-bio-pumpernickel/p/3041123</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>800g</t>
+          <t>250g</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F94" t="n">
         <v>4.5</v>
@@ -7571,12 +7571,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>0.46/100g</t>
+          <t>0.68/100g</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -7586,7 +7586,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -7596,48 +7596,48 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>Betty Bossi Pizzateig 3.70 Schweizer Franken</t>
+          <t>Naturaplan Bio Pumpernickel 1.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>3041123</t>
+          <t>5620342</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pumpernickel</t>
+          <t>Betty Bossi Pizzateig</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/naturaplan-bio-pumpernickel/p/3041123</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pizzateig/p/5620342</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>250g</t>
+          <t>800g</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F95" t="n">
         <v>4.5</v>
@@ -7649,12 +7649,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>0.68/100g</t>
+          <t>0.46/100g</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -7674,22 +7674,22 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Pumpernickel 1.70 Schweizer Franken</t>
+          <t>Betty Bossi Pizzateig 3.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -7763,7 +7763,7 @@
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -7837,7 +7837,7 @@
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -7915,7 +7915,7 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -8375,7 +8375,7 @@
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -8453,7 +8453,7 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -8527,7 +8527,7 @@
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -8605,7 +8605,7 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -8683,7 +8683,7 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -8835,7 +8835,7 @@
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -8909,7 +8909,7 @@
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -8987,7 +8987,7 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -9061,7 +9061,7 @@
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -9139,7 +9139,7 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -9217,7 +9217,7 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -9295,7 +9295,7 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -9373,7 +9373,7 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -9447,7 +9447,7 @@
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -9521,7 +9521,7 @@
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -9595,7 +9595,7 @@
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -9673,7 +9673,7 @@
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -9747,7 +9747,7 @@
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -9821,7 +9821,7 @@
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -9899,7 +9899,7 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -9973,50 +9973,50 @@
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>4689879</t>
+          <t>5688323</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Dar-Vida Oliven extra fin</t>
+          <t>Wasa Delicate Crisp Rosmarin &amp;amp; Meersalz</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-oliven-extra-fin/p/4689879</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-delicate-crisp-rosmarin-meersalz/p/5688323</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>184g</t>
+          <t>190g</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F126" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2.07/100g</t>
+          <t>1.47/100g</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -10036,61 +10036,61 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>Dar-Vida Oliven extra fin 20% ab 2 Aktion 3.80 Schweizer Franken</t>
+          <t>Wasa Delicate Crisp Rosmarin &amp;amp; Meersalz 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>5688323</t>
+          <t>3378613</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Wasa Delicate Crisp Rosmarin &amp;amp; Meersalz</t>
+          <t>Betty Bossi Kuchenteig in der Backschale</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-delicate-crisp-rosmarin-meersalz/p/5688323</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-kuchenteig-in-der-backschale/p/3378613</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>190g</t>
+          <t>140g</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F127" t="n">
         <v>5</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>1.47/100g</t>
+          <t>1.71/100g</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -10100,7 +10100,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -10110,61 +10110,65 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>Wasa Delicate Crisp Rosmarin &amp;amp; Meersalz 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O127" t="inlineStr"/>
+          <t>Betty Bossi Kuchenteig in der Backschale 2.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>3378613</t>
+          <t>4689879</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig in der Backschale</t>
+          <t>Dar-Vida Oliven extra fin</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-kuchenteig-in-der-backschale/p/3378613</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-oliven-extra-fin/p/4689879</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>140g</t>
+          <t>184g</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="F128" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>1.71/100g</t>
+          <t>2.07/100g</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -10174,7 +10178,7 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
@@ -10184,22 +10188,18 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>Betty Bossi Kuchenteig in der Backschale 2.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Dar-Vida Oliven extra fin 20% ab 2 Aktion 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -10273,7 +10273,7 @@
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -10347,7 +10347,7 @@
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -10425,7 +10425,7 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -10503,7 +10503,7 @@
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -10581,7 +10581,7 @@
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -10659,50 +10659,50 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>5791680</t>
+          <t>3023436</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Karma Mehrkornbrot mit Chia 250g</t>
+          <t>Old El Paso Fajita Kit</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/karma-mehrkornbrot-mit-chia/p/5791680</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit/p/3023436</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>250g</t>
+          <t>500g</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F135" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>1.40/100g</t>
+          <t>1.38/100g</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -10712,7 +10712,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -10722,65 +10722,61 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>Karma Mehrkornbrot mit Chia 250g 3.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O135" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Old El Paso Fajita Kit 20% ab 2 Aktion 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>3023436</t>
+          <t>5791680</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit</t>
+          <t>Karma Mehrkornbrot mit Chia 250g</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit/p/3023436</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/karma-mehrkornbrot-mit-chia/p/5791680</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>500g</t>
+          <t>250g</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F136" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>1.38/100g</t>
+          <t>1.40/100g</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -10790,7 +10786,7 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -10800,18 +10796,22 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit 20% ab 2 Aktion 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O136" t="inlineStr"/>
+          <t>Karma Mehrkornbrot mit Chia 250g 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -10885,7 +10885,7 @@
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -10959,7 +10959,7 @@
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -11033,7 +11033,7 @@
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -11189,7 +11189,7 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -11267,7 +11267,7 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -11341,7 +11341,7 @@
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -11419,7 +11419,7 @@
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -11493,7 +11493,7 @@
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -11569,7 +11569,7 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -11643,7 +11643,7 @@
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -11721,7 +11721,7 @@
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -11795,7 +11795,7 @@
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -11869,7 +11869,7 @@
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -11943,7 +11943,7 @@
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -12095,7 +12095,7 @@
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -12247,7 +12247,7 @@
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -12325,7 +12325,7 @@
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -12399,7 +12399,7 @@
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -12473,7 +12473,7 @@
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -12547,7 +12547,7 @@
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -12619,7 +12619,7 @@
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -12771,7 +12771,7 @@
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -12847,7 +12847,7 @@
       </c>
       <c r="P163" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -12921,7 +12921,7 @@
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -12999,7 +12999,7 @@
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -13151,7 +13151,7 @@
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -13229,7 +13229,7 @@
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -13307,7 +13307,7 @@
       </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -13385,50 +13385,50 @@
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>3726487</t>
+          <t>3040714</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Schokolade 8 Stück</t>
+          <t>Appenzeller Bärli-Biber gefüllt</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-schokolade-8-stueck/p/3726487</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/appenzeller-baerli-biber-gefuellt/p/3040714</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>300g</t>
+          <t>75g</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F171" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Zweifel</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -13438,7 +13438,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -13448,61 +13448,65 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Schokolade 8 Stück 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O171" t="inlineStr"/>
+          <t>Appenzeller Bärli-Biber gefüllt 1.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>3040714</t>
+          <t>3726487</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Appenzeller Bärli-Biber gefüllt</t>
+          <t>Pasquier Pitch Schokolade 8 Stück</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/appenzeller-baerli-biber-gefuellt/p/3040714</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-schokolade-8-stueck/p/3726487</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>75g</t>
+          <t>300g</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F172" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Zweifel</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -13512,7 +13516,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -13522,22 +13526,18 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>Appenzeller Bärli-Biber gefüllt 1.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O172" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Pasquier Pitch Schokolade 8 Stück 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -13615,7 +13615,7 @@
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -13693,7 +13693,7 @@
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -13767,7 +13767,7 @@
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -13841,7 +13841,7 @@
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -13915,7 +13915,7 @@
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -13989,7 +13989,7 @@
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -14063,7 +14063,7 @@
       <c r="O179" t="inlineStr"/>
       <c r="P179" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -14137,7 +14137,7 @@
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -14211,7 +14211,7 @@
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -14289,7 +14289,7 @@
       </c>
       <c r="P182" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -14367,7 +14367,7 @@
       </c>
       <c r="P183" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -14445,7 +14445,7 @@
       </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -14523,7 +14523,7 @@
       </c>
       <c r="P185" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -14599,7 +14599,7 @@
       </c>
       <c r="P186" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -14677,7 +14677,7 @@
       </c>
       <c r="P187" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -14755,7 +14755,7 @@
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -14833,7 +14833,7 @@
       </c>
       <c r="P189" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -14907,7 +14907,7 @@
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -14981,7 +14981,7 @@
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -15055,7 +15055,7 @@
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -15129,7 +15129,7 @@
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -15203,7 +15203,7 @@
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -15281,7 +15281,7 @@
       </c>
       <c r="P195" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -15355,7 +15355,7 @@
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -15429,7 +15429,7 @@
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -15507,7 +15507,7 @@
       </c>
       <c r="P198" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -15585,7 +15585,7 @@
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -15659,7 +15659,7 @@
       <c r="O200" t="inlineStr"/>
       <c r="P200" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -15733,7 +15733,7 @@
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -15807,7 +15807,7 @@
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -15881,7 +15881,7 @@
       <c r="O203" t="inlineStr"/>
       <c r="P203" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -15959,7 +15959,7 @@
       </c>
       <c r="P204" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -16033,7 +16033,7 @@
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -16111,7 +16111,7 @@
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -16185,7 +16185,7 @@
       <c r="O207" t="inlineStr"/>
       <c r="P207" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -16263,50 +16263,50 @@
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>6668613</t>
+          <t>6358647</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig eckig</t>
+          <t>Roland Naturaplan Bio Dinkelzwieback</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-eckig/p/6668613</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-naturaplan-bio-dinkelzwieback/p/6358647</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>310g</t>
+          <t>165g</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F209" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>0.40/100g</t>
+          <t>2.55/100g</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -16316,7 +16316,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
@@ -16326,65 +16326,61 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig eckig 1.25 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O209" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Roland Naturaplan Bio Dinkelzwieback 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr"/>
       <c r="P209" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>6358647</t>
+          <t>6668613</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Roland Naturaplan Bio Dinkelzwieback</t>
+          <t>Prix Garantie Kuchenteig eckig</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-naturaplan-bio-dinkelzwieback/p/6358647</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-eckig/p/6668613</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>165g</t>
+          <t>310g</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F210" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>2.55/100g</t>
+          <t>0.40/100g</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -16394,7 +16390,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -16404,18 +16400,22 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>Roland Naturaplan Bio Dinkelzwieback 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O210" t="inlineStr"/>
+          <t>Prix Garantie Kuchenteig eckig 1.25 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -16489,7 +16489,7 @@
       <c r="O211" t="inlineStr"/>
       <c r="P211" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -16567,7 +16567,7 @@
       </c>
       <c r="P212" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -16641,7 +16641,7 @@
       <c r="O213" t="inlineStr"/>
       <c r="P213" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -16715,7 +16715,7 @@
       <c r="O214" t="inlineStr"/>
       <c r="P214" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -16793,7 +16793,7 @@
       </c>
       <c r="P215" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -16867,36 +16867,36 @@
       <c r="O216" t="inlineStr"/>
       <c r="P216" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>6734419</t>
+          <t>5645960</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Prix Garantie MiniReiswaffeln</t>
+          <t>Free From Mehrkornbrötchen 6 Stück</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/prix-garantie-minireiswaffeln/p/6734419</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/free-from-mehrkornbroetchen-6-stueck/p/5645960</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>60g</t>
+          <t>420g</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F217" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -16905,12 +16905,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>1.00/100g</t>
+          <t>1.31/100g</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -16920,7 +16920,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -16930,51 +16930,51 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>Prix Garantie MiniReiswaffeln 0.60 Schweizer Franken</t>
+          <t>Free From Mehrkornbrötchen 6 Stück 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['frozen', 'gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>5645960</t>
+          <t>6734419</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Free From Mehrkornbrötchen 6 Stück</t>
+          <t>Prix Garantie MiniReiswaffeln</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/free-from-mehrkornbroetchen-6-stueck/p/5645960</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/prix-garantie-minireiswaffeln/p/6734419</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>420g</t>
+          <t>60g</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F218" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -16983,12 +16983,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>1.31/100g</t>
+          <t>1.00/100g</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -16998,7 +16998,7 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -17008,65 +17008,65 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>Free From Mehrkornbrötchen 6 Stück 5.50 Schweizer Franken</t>
+          <t>Prix Garantie MiniReiswaffeln 0.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>['frozen', 'gluten_free', 'lactose_free']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>3040623</t>
+          <t>6141017</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Hug Zwieback ohne Zucker 250g</t>
+          <t>Bonne Maman Madelein au Citron 7 Stück</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-ohne-zucker-250g/p/3040623</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madelein-au-citron-7-stueck/p/6141017</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>250g</t>
+          <t>175g</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F219" t="n">
         <v>5</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>1.86/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
@@ -17086,61 +17086,61 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>Hug Zwieback ohne Zucker 250g 4.65 Schweizer Franken</t>
+          <t>Bonne Maman Madelein au Citron 7 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O219" t="inlineStr"/>
       <c r="P219" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>6141017</t>
+          <t>3040623</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Bonne Maman Madelein au Citron 7 Stück</t>
+          <t>Hug Zwieback ohne Zucker 250g</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madelein-au-citron-7-stueck/p/6141017</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-ohne-zucker-250g/p/3040623</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>175g</t>
+          <t>250g</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F220" t="n">
         <v>5</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>1.86/100g</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -17150,7 +17150,7 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -17160,44 +17160,44 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>Bonne Maman Madelein au Citron 7 Stück 3.95 Schweizer Franken</t>
+          <t>Hug Zwieback ohne Zucker 250g 4.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="O220" t="inlineStr"/>
       <c r="P220" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>6629585</t>
+          <t>6338746</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Betty Bossi Marmor Cake</t>
+          <t>Country Cracker Sesam Stange</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-marmor-cake/p/6629585</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam-stange/p/6338746</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>110g</t>
+          <t>295g</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F221" t="n">
         <v>5</v>
@@ -17209,12 +17209,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -17234,44 +17234,44 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>Betty Bossi Marmor Cake 1.95 Schweizer Franken</t>
+          <t>Country Cracker Sesam Stange 20% ab 2 Aktion 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="O221" t="inlineStr"/>
       <c r="P221" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>6338746</t>
+          <t>6080763</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam Stange</t>
+          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam-stange/p/6338746</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/naturaplan-bio-cracker-rosmarin-quinoa/p/6080763</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>295g</t>
+          <t>208g</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F222" t="n">
         <v>5</v>
@@ -17288,7 +17288,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>1.59/100g</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -17298,7 +17298,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -17313,42 +17313,42 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam Stange 20% ab 2 Aktion 3.30 Schweizer Franken</t>
+          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa 20% ab 2 Aktion 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="O222" t="inlineStr"/>
       <c r="P222" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>4886666</t>
+          <t>6629585</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Dinkel 5x41g</t>
+          <t>Betty Bossi Marmor Cake</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/naturaplan-bio-cracker-dinkel-5x41g/p/4886666</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-marmor-cake/p/6629585</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>208g</t>
+          <t>110g</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="F223" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -17357,12 +17357,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>1.80/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -17372,7 +17372,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -17382,35 +17382,35 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Dinkel 5x41g 20% ab 2 Aktion 3.75 Schweizer Franken</t>
+          <t>Betty Bossi Marmor Cake 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O223" t="inlineStr"/>
       <c r="P223" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>6080763</t>
+          <t>4886666</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa</t>
+          <t>Naturaplan Bio Cracker Dinkel 5x41g</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/naturaplan-bio-cracker-rosmarin-quinoa/p/6080763</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/naturaplan-bio-cracker-dinkel-5x41g/p/4886666</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -17419,10 +17419,10 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F224" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -17431,12 +17431,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>1.59/100g</t>
+          <t>1.80/100g</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -17446,7 +17446,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -17456,18 +17456,18 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Rosmarin &amp;amp; Quinoa 20% ab 2 Aktion 3.30 Schweizer Franken</t>
+          <t>Naturaplan Bio Cracker Dinkel 5x41g 20% ab 2 Aktion 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O224" t="inlineStr"/>
       <c r="P224" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -17545,50 +17545,50 @@
       </c>
       <c r="P225" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>6797332</t>
+          <t>3431131</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS Strawberry 2 Stück</t>
+          <t>Betty Bossi Spitzbube 2x  80g</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/dunkin-donuts-strawberry-2-stueck/p/6797332</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-spitzbube/p/3431131</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>146g</t>
+          <t>2x 80g</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F226" t="n">
         <v>5</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>3.08/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -17598,7 +17598,7 @@
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -17608,61 +17608,61 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>DUNKIN' DONUTS Strawberry 2 Stück 4.50 Schweizer Franken</t>
+          <t>Betty Bossi Spitzbube 2x  80g 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O226" t="inlineStr"/>
       <c r="P226" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>3690878</t>
+          <t>6797332</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse</t>
+          <t>DUNKIN' DONUTS Strawberry 2 Stück</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-mit-kuerbiskernen-kaese/p/3690878</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/dunkin-donuts-strawberry-2-stueck/p/6797332</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>200g</t>
+          <t>146g</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="F227" t="n">
         <v>5</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DUNKIN' DONUTS</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>3.08/100g</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -17672,7 +17672,7 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -17682,45 +17682,47 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse 3.95 Schweizer Franken</t>
+          <t>DUNKIN' DONUTS Strawberry 2 Stück 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O227" t="inlineStr"/>
       <c r="P227" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>6826714</t>
+          <t>3690878</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Mehr-korn Baguettes</t>
+          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/prix-garantie-frischback-mehr-korn-baguettes/p/6826714</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-mit-kuerbiskernen-kaese/p/3690878</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>360g</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr"/>
+          <t>200g</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>41</v>
+      </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -17729,12 +17731,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>0.56/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -17744,7 +17746,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -17754,47 +17756,45 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Mehr-korn Baguettes 2.00 Schweizer Franken</t>
+          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O228" t="inlineStr"/>
       <c r="P228" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>4373135</t>
+          <t>6826714</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Chinois 6 Stück</t>
+          <t>Prix Garantie Frischback Mehr-korn Baguettes</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-mini-chinois-6-stueck/p/4373135</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/prix-garantie-frischback-mehr-korn-baguettes/p/6826714</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>300g</t>
-        </is>
-      </c>
-      <c r="E229" t="n">
-        <v>3</v>
-      </c>
+          <t>360g</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr"/>
       <c r="F229" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -17803,12 +17803,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>0.56/100g</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -17818,7 +17818,7 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -17828,44 +17828,44 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Chinois 6 Stück 2.70 Schweizer Franken</t>
+          <t>Prix Garantie Frischback Mehr-korn Baguettes 2.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O229" t="inlineStr"/>
       <c r="P229" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>3431131</t>
+          <t>4373135</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Betty Bossi Spitzbube 2x  80g</t>
+          <t>Prix Garantie Mini Chinois 6 Stück</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-spitzbube/p/3431131</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-mini-chinois-6-stueck/p/4373135</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>2x 80g</t>
+          <t>300g</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F230" t="n">
         <v>5</v>
@@ -17877,12 +17877,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
@@ -17902,18 +17902,18 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>Betty Bossi Spitzbube 2x  80g 4.40 Schweizer Franken</t>
+          <t>Prix Garantie Mini Chinois 6 Stück 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O230" t="inlineStr"/>
       <c r="P230" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -17991,7 +17991,7 @@
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -18065,7 +18065,7 @@
       <c r="O232" t="inlineStr"/>
       <c r="P232" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -18143,7 +18143,7 @@
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -18217,7 +18217,7 @@
       <c r="O234" t="inlineStr"/>
       <c r="P234" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -18293,7 +18293,7 @@
       </c>
       <c r="P235" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -18367,50 +18367,50 @@
       <c r="O236" t="inlineStr"/>
       <c r="P236" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>6569371</t>
+          <t>3734986</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Prix Garantie Knusperschnitte</t>
+          <t>Mulino Bianco 5-Kornbrot mit Soja</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/prix-garantie-knusperschnitte/p/6569371</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-5-kornbrot-mit-soja/p/3734986</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>125g</t>
+          <t>400g</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F237" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Mulino Bianco</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>1.00/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -18420,7 +18420,7 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
@@ -18430,65 +18430,61 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>Prix Garantie Knusperschnitte 1.25 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O237" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Mulino Bianco 5-Kornbrot mit Soja - Online kein Bestand 2.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr"/>
       <c r="P237" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>3734986</t>
+          <t>5689579</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Mulino Bianco 5-Kornbrot mit Soja</t>
+          <t>Wasa Sandwich Käse &amp;amp; Schnittlauch</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/mulino-bianco-5-kornbrot-mit-soja/p/3734986</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/wasa-sandwich-kaese-schnittlauch/p/5689579</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>400g</t>
+          <t>111g</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F238" t="n">
         <v>5</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Mulino Bianco</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -18498,7 +18494,7 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
@@ -18508,18 +18504,18 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>Mulino Bianco 5-Kornbrot mit Soja - Online kein Bestand 2.60 Schweizer Franken</t>
+          <t>Wasa Sandwich Käse &amp;amp; Schnittlauch 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O238" t="inlineStr"/>
       <c r="P238" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -18597,50 +18593,50 @@
       </c>
       <c r="P239" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>5689579</t>
+          <t>6569371</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Wasa Sandwich Käse &amp;amp; Schnittlauch</t>
+          <t>Prix Garantie Knusperschnitte</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/wasa-sandwich-kaese-schnittlauch/p/5689579</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/prix-garantie-knusperschnitte/p/6569371</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>111g</t>
+          <t>125g</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F240" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>1.00/100g</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -18650,7 +18646,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
@@ -18660,18 +18656,22 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot']</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>Wasa Sandwich Käse &amp;amp; Schnittlauch 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O240" t="inlineStr"/>
+          <t>Prix Garantie Knusperschnitte 1.25 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="P240" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -18743,48 +18743,50 @@
       <c r="O241" t="inlineStr"/>
       <c r="P241" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>6787088</t>
+          <t>3804246</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Pastetli 6x30g</t>
+          <t>Schär Frischback Ciabatta glutenfrei</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/pastetli-6x30g/p/6787088</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-ciabatta-glutenfrei/p/3804246</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>180g</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr"/>
+          <t>200g</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>18</v>
+      </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>1.22/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -18794,7 +18796,7 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
@@ -18804,65 +18806,63 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>Pastetli 6x30g 2.20 Schweizer Franken</t>
+          <t>Schär Frischback Ciabatta glutenfrei 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="P242" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>3804246</t>
+          <t>6787088</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Schär Frischback Ciabatta glutenfrei</t>
+          <t>Pastetli 6x30g</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-ciabatta-glutenfrei/p/3804246</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/tortenboden-pastetli/pastetli-6x30g/p/6787088</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>200g</t>
-        </is>
-      </c>
-      <c r="E243" t="n">
-        <v>18</v>
-      </c>
+          <t>180g</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr"/>
       <c r="F243" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>1.22/100g</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -18872,7 +18872,7 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -18882,65 +18882,65 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'tortenboden-pastetli']</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>Schär Frischback Ciabatta glutenfrei 3.80 Schweizer Franken</t>
+          <t>Pastetli 6x30g 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="P243" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>3715589</t>
+          <t>3584194</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Buitoni Focaccia-Teig rund ausgewallt Ø24cm</t>
+          <t>Fine Food Zuger Kirschtorte</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-focaccia-teig-rund-ausgewallt-24cm/p/3715589</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fine-food-zuger-kirschtorte/p/3584194</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>375g</t>
+          <t>300g</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F244" t="n">
         <v>4.5</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>4.83/100g</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -18950,7 +18950,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -18960,12 +18960,12 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>Buitoni Focaccia-Teig rund ausgewallt Ø24cm 4.40 Schweizer Franken</t>
+          <t>Fine Food Zuger Kirschtorte 14.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -18975,50 +18975,50 @@
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>3584194</t>
+          <t>3715589</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Fine Food Zuger Kirschtorte</t>
+          <t>Buitoni Focaccia-Teig rund ausgewallt Ø24cm</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fine-food-zuger-kirschtorte/p/3584194</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-focaccia-teig-rund-ausgewallt-24cm/p/3715589</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>300g</t>
+          <t>375g</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="F245" t="n">
         <v>4.5</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>4.83/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -19028,7 +19028,7 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -19038,12 +19038,12 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>Fine Food Zuger Kirschtorte 14.50 Schweizer Franken</t>
+          <t>Buitoni Focaccia-Teig rund ausgewallt Ø24cm 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -19053,7 +19053,7 @@
       </c>
       <c r="P245" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -19131,50 +19131,50 @@
       </c>
       <c r="P246" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>3726503</t>
+          <t>6564543</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 16 Stück</t>
+          <t>Country Cracker Käse</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-16-stueck/p/3726503</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>720g</t>
+          <t>228g</t>
         </is>
       </c>
       <c r="E247" t="n">
+        <v>4</v>
+      </c>
+      <c r="F247" t="n">
         <v>5</v>
       </c>
-      <c r="F247" t="n">
-        <v>4.5</v>
-      </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>1.18/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
@@ -19194,61 +19194,61 @@
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 16 Stück 8.50 Schweizer Franken</t>
+          <t>Country Cracker Käse 20% ab 2 Aktion 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O247" t="inlineStr"/>
       <c r="P247" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>6564543</t>
+          <t>3726503</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Country Cracker Käse</t>
+          <t>Pasquier Schokobrötchen 16 Stück</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-schokobroetchen-16-stueck/p/3726503</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>228g</t>
+          <t>720g</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F248" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>1.18/100g</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -19258,7 +19258,7 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -19268,18 +19268,18 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>Country Cracker Käse 20% ab 2 Aktion 3.60 Schweizer Franken</t>
+          <t>Pasquier Schokobrötchen 16 Stück 8.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O248" t="inlineStr"/>
       <c r="P248" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -19351,7 +19351,7 @@
       <c r="O249" t="inlineStr"/>
       <c r="P249" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -19425,7 +19425,7 @@
       <c r="O250" t="inlineStr"/>
       <c r="P250" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -19503,50 +19503,50 @@
       </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>4849123</t>
+          <t>6601630</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Schär Crackers Pocket glutenfrei 3x50g</t>
+          <t>Roland Petite Pause Family Schokolade</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/schaer-crackers-pocket-glutenfrei-3x50g/p/4849123</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-family-schokolade/p/6601630</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>150g</t>
+          <t>280g</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F252" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>2.47/100g</t>
+          <t>2.02/100g</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -19556,7 +19556,7 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
@@ -19566,65 +19566,61 @@
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>Schär Crackers Pocket glutenfrei 3x50g 20% ab 2 Aktion 3.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O252" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Roland Petite Pause Family Schokolade 20% ab 2 Aktion 5.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr"/>
       <c r="P252" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>6387363</t>
+          <t>4849123</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Karma Snack Mais Hülsenfrüchte</t>
+          <t>Schär Crackers Pocket glutenfrei 3x50g</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-mais-huelsenfruechte/p/6387363</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/schaer-crackers-pocket-glutenfrei-3x50g/p/4849123</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>80g</t>
+          <t>150g</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F253" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>2.44/100g</t>
+          <t>2.47/100g</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -19634,7 +19630,7 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -19649,46 +19645,46 @@
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>Karma Snack Mais Hülsenfrüchte 25% ab 2 Aktion 1.95 Schweizer Franken</t>
+          <t>Schär Crackers Pocket glutenfrei 3x50g 20% ab 2 Aktion 3.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="P253" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>6528382</t>
+          <t>6387363</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines Marmorizzate</t>
+          <t>Karma Snack Mais Hülsenfrüchte</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-marmorizzate/p/6528382</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-mais-huelsenfruechte/p/6387363</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>500g</t>
+          <t>80g</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F254" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -19697,12 +19693,12 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>0.51/100g</t>
+          <t>2.44/100g</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -19712,7 +19708,7 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -19722,61 +19718,65 @@
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>Prix Garantie Madeleines Marmorizzate 2.55 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O254" t="inlineStr"/>
+          <t>Karma Snack Mais Hülsenfrüchte 25% ab 2 Aktion 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="P254" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>6601630</t>
+          <t>6528382</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Family Schokolade</t>
+          <t>Prix Garantie Madeleines Marmorizzate</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-family-schokolade/p/6601630</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-madeleines-marmorizzate/p/6528382</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>280g</t>
+          <t>500g</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F255" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>2.02/100g</t>
+          <t>0.51/100g</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -19786,7 +19786,7 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
@@ -19796,61 +19796,61 @@
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Family Schokolade 20% ab 2 Aktion 5.65 Schweizer Franken</t>
+          <t>Prix Garantie Madeleines Marmorizzate 2.55 Schweizer Franken</t>
         </is>
       </c>
       <c r="O255" t="inlineStr"/>
       <c r="P255" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>5747253</t>
+          <t>6775681</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Choco Barre Lait</t>
+          <t>MEZEAST Pita Bread</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-choco-barre-lait/p/5747253</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-pita-bread/p/6775681</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>300g</t>
+          <t>480g</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F256" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>0.94/100g</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -19860,7 +19860,7 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
@@ -19870,61 +19870,65 @@
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>Pasquier Pitch Choco Barre Lait 5.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O256" t="inlineStr"/>
+          <t>MEZEAST Pita Bread 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="P256" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>6775681</t>
+          <t>6348879</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>MEZEAST Pita Bread</t>
+          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-pita-bread/p/6775681</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-mit-olivenoel-rund-ausgewallt-24cm/p/6348879</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>480g</t>
+          <t>280g</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F257" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>0.94/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -19934,7 +19938,7 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
@@ -19944,65 +19948,65 @@
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>MEZEAST Pita Bread 4.50 Schweizer Franken</t>
+          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="P257" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>6348879</t>
+          <t>6767586</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm</t>
+          <t>Milka Choco Brownie</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-mit-olivenoel-rund-ausgewallt-24cm/p/6348879</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/milka-choco-brownie/p/6767586</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>280g</t>
+          <t>150g</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F258" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Milka</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>1.97/100g</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -20012,7 +20016,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -20022,65 +20026,61 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O258" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Milka Choco Brownie 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O258" t="inlineStr"/>
       <c r="P258" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>6767586</t>
+          <t>5747253</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Milka Choco Brownie</t>
+          <t>Pasquier Pitch Choco Barre Lait</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/milka-choco-brownie/p/6767586</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pitch-choco-barre-lait/p/5747253</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>150g</t>
+          <t>300g</t>
         </is>
       </c>
       <c r="E259" t="n">
+        <v>1</v>
+      </c>
+      <c r="F259" t="n">
         <v>3</v>
       </c>
-      <c r="F259" t="n">
-        <v>3.5</v>
-      </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>Milka</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>1.97/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -20090,7 +20090,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -20100,18 +20100,18 @@
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>Milka Choco Brownie 2.95 Schweizer Franken</t>
+          <t>Pasquier Pitch Choco Barre Lait 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O259" t="inlineStr"/>
       <c r="P259" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -20189,7 +20189,7 @@
       </c>
       <c r="P260" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -20267,7 +20267,7 @@
       </c>
       <c r="P261" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -20341,7 +20341,7 @@
       <c r="O262" t="inlineStr"/>
       <c r="P262" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -20415,7 +20415,7 @@
       <c r="O263" t="inlineStr"/>
       <c r="P263" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -20493,7 +20493,7 @@
       </c>
       <c r="P264" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -20571,7 +20571,7 @@
       </c>
       <c r="P265" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -20645,7 +20645,7 @@
       <c r="O266" t="inlineStr"/>
       <c r="P266" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -20719,7 +20719,7 @@
       <c r="O267" t="inlineStr"/>
       <c r="P267" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -20793,7 +20793,7 @@
       <c r="O268" t="inlineStr"/>
       <c r="P268" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -20865,7 +20865,7 @@
       <c r="O269" t="inlineStr"/>
       <c r="P269" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -20937,7 +20937,7 @@
       <c r="O270" t="inlineStr"/>
       <c r="P270" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -21015,7 +21015,7 @@
       </c>
       <c r="P271" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -21083,13 +21083,13 @@
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>Zitronencake 5.95 Schweizer Franken</t>
+          <t>Zitronencake - Online kein Bestand 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O272" t="inlineStr"/>
       <c r="P272" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -21163,50 +21163,50 @@
       <c r="O273" t="inlineStr"/>
       <c r="P273" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>6315330</t>
+          <t>5650918</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt</t>
+          <t>Leisi Blätterteig Rustica rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/schweizer-woche/leisi-blaetterteig-rustica-rund-ausgewallt-32cm/p/5650918</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>150g</t>
+          <t>230g</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F274" t="n">
         <v>4.5</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>1.48/100g</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -21216,7 +21216,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -21226,65 +21226,65 @@
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'schweizer-woche']</t>
         </is>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt 20% ab 2 Aktion 3.65 Schweizer Franken</t>
+          <t>Leisi Blätterteig Rustica rund ausgewallt Ø32cm 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="P274" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>5650918</t>
+          <t>6315330</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig Rustica rund ausgewallt Ø32cm</t>
+          <t>Old El Paso Tortilla Bowls Seasalt</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/schweizer-woche/leisi-blaetterteig-rustica-rund-ausgewallt-32cm/p/5650918</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>230g</t>
+          <t>150g</t>
         </is>
       </c>
       <c r="E275" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F275" t="n">
         <v>4.5</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>1.48/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -21294,7 +21294,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -21304,22 +21304,22 @@
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'schweizer-woche']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig Rustica rund ausgewallt Ø32cm 3.40 Schweizer Franken</t>
+          <t>Old El Paso Tortilla Bowls Seasalt 20% ab 2 Aktion 3.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="P275" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -21393,7 +21393,7 @@
       <c r="O276" t="inlineStr"/>
       <c r="P276" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -21467,7 +21467,7 @@
       <c r="O277" t="inlineStr"/>
       <c r="P277" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -21541,7 +21541,7 @@
       <c r="O278" t="inlineStr"/>
       <c r="P278" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -21615,50 +21615,50 @@
       <c r="O279" t="inlineStr"/>
       <c r="P279" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>4145230</t>
+          <t>5989712</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g</t>
+          <t>Wasa Knäckebrot glutenfrei</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-milchschokolade-2x45g/p/4145230</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>90g</t>
+          <t>240g</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F280" t="n">
         <v>5</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>3.11/100g</t>
+          <t>1.63/100g</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -21668,7 +21668,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -21678,22 +21678,18 @@
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g 25% ab 2 Aktion 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O280" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Wasa Knäckebrot glutenfrei 3.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O280" t="inlineStr"/>
       <c r="P280" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -21771,50 +21767,48 @@
       </c>
       <c r="P281" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>5853824</t>
+          <t>6786544</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Schär Choco Muffins glutenfrei 4 Stück</t>
+          <t>Mulino Bianco Nascondini</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-choco-muffins-glutenfrei-4-stueck/p/5853824</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mulino-bianco-nascondini/p/6786544</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>260g</t>
-        </is>
-      </c>
-      <c r="E282" t="n">
-        <v>3</v>
-      </c>
+          <t>330g</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr"/>
       <c r="F282" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Mulino Bianco</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>2.00/100g</t>
+          <t>1.06/100g</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -21824,7 +21818,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -21839,60 +21833,56 @@
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>Schär Choco Muffins glutenfrei 4 Stück 5.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O282" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Mulino Bianco Nascondini 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O282" t="inlineStr"/>
       <c r="P282" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>5989712</t>
+          <t>5853824</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei</t>
+          <t>Schär Choco Muffins glutenfrei 4 Stück</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-choco-muffins-glutenfrei-4-stueck/p/5853824</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>240g</t>
+          <t>260g</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F283" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>1.63/100g</t>
+          <t>2.00/100g</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -21902,7 +21892,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -21912,59 +21902,65 @@
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei 3.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O283" t="inlineStr"/>
+          <t>Schär Choco Muffins glutenfrei 4 Stück 5.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="P283" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>6786544</t>
+          <t>4145230</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Mulino Bianco Nascondini</t>
+          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mulino-bianco-nascondini/p/6786544</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-milchschokolade-2x45g/p/4145230</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>330g</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr"/>
+          <t>90g</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>8</v>
+      </c>
       <c r="F284" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>Mulino Bianco</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>1.06/100g</t>
+          <t>3.11/100g</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -21974,7 +21970,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -21984,18 +21980,22 @@
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>Mulino Bianco Nascondini 3.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O284" t="inlineStr"/>
+          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g 25% ab 2 Aktion 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="P284" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -22069,7 +22069,7 @@
       <c r="O285" t="inlineStr"/>
       <c r="P285" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -22147,7 +22147,7 @@
       </c>
       <c r="P286" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -22219,7 +22219,7 @@
       <c r="O287" t="inlineStr"/>
       <c r="P287" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -22297,7 +22297,7 @@
       </c>
       <c r="P288" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -22369,50 +22369,50 @@
       <c r="O289" t="inlineStr"/>
       <c r="P289" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>5979603</t>
+          <t>6424899</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Zwerghirse</t>
+          <t>Prix Garantie Aprikosen Tartelettes</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-zwerghirse/p/5979603</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-aprikosen-tartelettes/p/6424899</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>200g</t>
+          <t>300g</t>
         </is>
       </c>
       <c r="E290" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F290" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -22422,7 +22422,7 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -22432,48 +22432,44 @@
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Zwerghirse 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O290" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Aprikosen Tartelettes 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O290" t="inlineStr"/>
       <c r="P290" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>6424899</t>
+          <t>6605568</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Prix Garantie Aprikosen Tartelettes</t>
+          <t>Prix Garantie Mini Muffins Choco</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-aprikosen-tartelettes/p/6424899</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-mini-muffins-choco/p/6605568</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>300g</t>
+          <t>225g</t>
         </is>
       </c>
       <c r="E291" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F291" t="n">
         <v>4</v>
@@ -22485,12 +22481,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>1.20/100g</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -22500,7 +22496,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -22515,56 +22511,56 @@
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>Prix Garantie Aprikosen Tartelettes 1.95 Schweizer Franken</t>
+          <t>Prix Garantie Mini Muffins Choco 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O291" t="inlineStr"/>
       <c r="P291" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>6605568</t>
+          <t>5979603</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Muffins Choco</t>
+          <t>Roland Knäckebrot Zwerghirse</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-mini-muffins-choco/p/6605568</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-zwerghirse/p/5979603</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>225g</t>
+          <t>200g</t>
         </is>
       </c>
       <c r="E292" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F292" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>1.20/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -22574,7 +22570,7 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -22584,18 +22580,22 @@
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Muffins Choco 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O292" t="inlineStr"/>
+          <t>Roland Knäckebrot Zwerghirse 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="P292" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -22669,7 +22669,7 @@
       <c r="O293" t="inlineStr"/>
       <c r="P293" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -22743,7 +22743,7 @@
       <c r="O294" t="inlineStr"/>
       <c r="P294" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -22819,7 +22819,7 @@
       </c>
       <c r="P295" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -22897,7 +22897,7 @@
       </c>
       <c r="P296" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -22975,7 +22975,7 @@
       </c>
       <c r="P297" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -23053,7 +23053,7 @@
       </c>
       <c r="P298" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -23127,7 +23127,7 @@
       <c r="O299" t="inlineStr"/>
       <c r="P299" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -23201,7 +23201,7 @@
       <c r="O300" t="inlineStr"/>
       <c r="P300" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -23279,7 +23279,7 @@
       </c>
       <c r="P301" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -23355,36 +23355,36 @@
       </c>
       <c r="P302" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>6313770</t>
+          <t>5909378</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Milch Céréales</t>
+          <t>Roland Cracker Gemüse</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-milch-cereales/p/6313770</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-cracker-gemuese/p/5909378</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>105g</t>
+          <t>130g</t>
         </is>
       </c>
       <c r="E303" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F303" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -23393,12 +23393,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>2.52/100g</t>
+          <t>2.88/100g</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -23408,7 +23408,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -23418,61 +23418,61 @@
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Milch Céréales 20% ab 2 Aktion 2.65 Schweizer Franken</t>
+          <t>Roland Cracker Gemüse 20% ab 2 Aktion 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O303" t="inlineStr"/>
       <c r="P303" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>6703375</t>
+          <t>6313770</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Prix Garantie Cinnamon Rolls</t>
+          <t>Roland Petite Pause Milch Céréales</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-cinnamon-rolls/p/6703375</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-milch-cereales/p/6313770</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>220g</t>
+          <t>105g</t>
         </is>
       </c>
       <c r="E304" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F304" t="n">
         <v>3.5</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>2.52/100g</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -23482,7 +23482,7 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -23492,47 +23492,47 @@
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>Prix Garantie Cinnamon Rolls 2.70 Schweizer Franken</t>
+          <t>Roland Petite Pause Milch Céréales 20% ab 2 Aktion 2.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="O304" t="inlineStr"/>
       <c r="P304" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>6482125</t>
+          <t>6703375</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Prix Garantie Fairtrade Soft Cake Himbeere</t>
+          <t>Prix Garantie Cinnamon Rolls</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-fairtrade-soft-cake-himbeere/p/6482125</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/prix-garantie-cinnamon-rolls/p/6703375</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>300g</t>
+          <t>220g</t>
         </is>
       </c>
       <c r="E305" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F305" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -23541,12 +23541,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>0.60/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -23556,7 +23556,7 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -23566,61 +23566,61 @@
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>Prix Garantie Fairtrade Soft Cake Himbeere 1.80 Schweizer Franken</t>
+          <t>Prix Garantie Cinnamon Rolls 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O305" t="inlineStr"/>
       <c r="P305" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>6723241</t>
+          <t>6482125</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla XL Glutenfree 4 Stück</t>
+          <t>Prix Garantie Fairtrade Soft Cake Himbeere</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-xl-glutenfree-4-stueck/p/6723241</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-fairtrade-soft-cake-himbeere/p/6482125</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>215g</t>
+          <t>300g</t>
         </is>
       </c>
       <c r="E306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F306" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>3.02/100g</t>
+          <t>0.60/100g</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -23630,7 +23630,7 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
@@ -23640,65 +23640,61 @@
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla XL Glutenfree 4 Stück 20% ab 2 Aktion 6.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O306" t="inlineStr">
-        <is>
-          <t>['vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Fairtrade Soft Cake Himbeere 1.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O306" t="inlineStr"/>
       <c r="P306" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>5909378</t>
+          <t>6723241</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Roland Cracker Gemüse</t>
+          <t>Old el Paso Tortilla XL Glutenfree 4 Stück</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-cracker-gemuese/p/5909378</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-xl-glutenfree-4-stueck/p/6723241</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>130g</t>
+          <t>215g</t>
         </is>
       </c>
       <c r="E307" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F307" t="n">
         <v>4</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>2.88/100g</t>
+          <t>3.02/100g</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -23708,7 +23704,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -23718,18 +23714,22 @@
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>Roland Cracker Gemüse 20% ab 2 Aktion 3.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O307" t="inlineStr"/>
+          <t>Old el Paso Tortilla XL Glutenfree 4 Stück 20% ab 2 Aktion 6.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>['vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="P307" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -23803,36 +23803,36 @@
       <c r="O308" t="inlineStr"/>
       <c r="P308" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>6575244</t>
+          <t>5777498</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Old el Paso Fajita mix Gluten Free</t>
+          <t>Old el Paso Soft Taco Shells Mini</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-mix-gluten-free/p/6575244</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-taco-shells-mini/p/5777498</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>30g</t>
+          <t>145g</t>
         </is>
       </c>
       <c r="E309" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F309" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -23841,12 +23841,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>5.33/100g</t>
+          <t>4.10/100g</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -23856,7 +23856,7 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -23871,60 +23871,56 @@
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>Old el Paso Fajita mix Gluten Free 20% ab 2 Aktion 1.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O309" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Old el Paso Soft Taco Shells Mini 20% ab 2 Aktion 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O309" t="inlineStr"/>
       <c r="P309" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>5777498</t>
+          <t>6313768</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Old el Paso Soft Taco Shells Mini</t>
+          <t>Roland Petite Pause Choco Céréales</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-taco-shells-mini/p/5777498</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-choco-cereales/p/6313768</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>145g</t>
+          <t>105g</t>
         </is>
       </c>
       <c r="E310" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F310" t="n">
         <v>4.5</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>4.10/100g</t>
+          <t>2.52/100g</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -23934,7 +23930,7 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -23944,61 +23940,61 @@
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
         </is>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>Old el Paso Soft Taco Shells Mini 20% ab 2 Aktion 5.95 Schweizer Franken</t>
+          <t>Roland Petite Pause Choco Céréales 20% ab 2 Aktion 2.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="O310" t="inlineStr"/>
       <c r="P310" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>6313768</t>
+          <t>6575244</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Choco Céréales</t>
+          <t>Old el Paso Fajita mix Gluten Free</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-choco-cereales/p/6313768</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-mix-gluten-free/p/6575244</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>105g</t>
+          <t>30g</t>
         </is>
       </c>
       <c r="E311" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F311" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>2.52/100g</t>
+          <t>5.33/100g</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -24008,7 +24004,7 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -24018,61 +24014,65 @@
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Choco Céréales 20% ab 2 Aktion 2.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O311" t="inlineStr"/>
+          <t>Old el Paso Fajita mix Gluten Free 20% ab 2 Aktion 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="P311" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>3041815</t>
+          <t>6581130</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G</t>
+          <t>Dona Pita Brot</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>250g</t>
+          <t>480g</t>
         </is>
       </c>
       <c r="E312" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F312" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Dona</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>1.68/100g</t>
+          <t>0.57/100g</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -24082,7 +24082,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -24092,18 +24092,18 @@
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
+          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O312" t="inlineStr"/>
       <c r="P312" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -24177,50 +24177,50 @@
       <c r="O313" t="inlineStr"/>
       <c r="P313" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>6581130</t>
+          <t>3041815</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Dona Pita Brot</t>
+          <t>Hug Zwieback Original 250G</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>480g</t>
+          <t>250g</t>
         </is>
       </c>
       <c r="E314" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F314" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>Dona</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>0.57/100g</t>
+          <t>1.68/100g</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -24230,7 +24230,7 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -24240,18 +24240,18 @@
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
+          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O314" t="inlineStr"/>
       <c r="P314" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -24329,36 +24329,36 @@
       </c>
       <c r="P315" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>6500790</t>
+          <t>6967944</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>St.Michel Mini Brownies Chocolat</t>
+          <t>St. Michel Galettes Mou Choco Blanc</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-mini-brownies-chocolat/p/6500790</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>240g</t>
+          <t>180g</t>
         </is>
       </c>
       <c r="E316" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F316" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -24367,12 +24367,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -24382,7 +24382,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -24397,42 +24397,42 @@
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>St.Michel Mini Brownies Chocolat 3.95 Schweizer Franken</t>
+          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O316" t="inlineStr"/>
       <c r="P316" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>6967945</t>
+          <t>6500790</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>St. Michel Dooomino au chocolat</t>
+          <t>St.Michel Mini Brownies Chocolat</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-dooomino-au-chocolat/p/6967945</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-mini-brownies-chocolat/p/6500790</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>180g</t>
+          <t>240g</t>
         </is>
       </c>
       <c r="E317" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F317" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -24441,12 +24441,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -24456,7 +24456,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -24471,13 +24471,13 @@
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>St. Michel Dooomino au chocolat 2.95 Schweizer Franken</t>
+          <t>St.Michel Mini Brownies Chocolat 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O317" t="inlineStr"/>
       <c r="P317" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -24551,24 +24551,24 @@
       <c r="O318" t="inlineStr"/>
       <c r="P318" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>6967944</t>
+          <t>6967945</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc</t>
+          <t>St. Michel Dooomino au chocolat</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-dooomino-au-chocolat/p/6967945</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -24619,13 +24619,13 @@
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
+          <t>St. Michel Dooomino au chocolat 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O319" t="inlineStr"/>
       <c r="P319" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -24699,7 +24699,7 @@
       <c r="O320" t="inlineStr"/>
       <c r="P320" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -24773,7 +24773,7 @@
       <c r="O321" t="inlineStr"/>
       <c r="P321" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -24847,7 +24847,7 @@
       <c r="O322" t="inlineStr"/>
       <c r="P322" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -24925,7 +24925,7 @@
       </c>
       <c r="P323" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -24999,7 +24999,7 @@
       <c r="O324" t="inlineStr"/>
       <c r="P324" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -25077,50 +25077,50 @@
       </c>
       <c r="P325" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>6989654</t>
+          <t>3446126</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies</t>
+          <t>Old El Paso Enchilada Kit</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies/p/6989654</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-enchilada-kit/p/3446126</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>400g</t>
+          <t>657g</t>
         </is>
       </c>
       <c r="E326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F326" t="n">
         <v>5</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>Bauckhof</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -25130,7 +25130,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -25140,63 +25140,61 @@
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O326" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Old El Paso Enchilada Kit 20% ab 2 Aktion 7.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O326" t="inlineStr"/>
       <c r="P326" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>4921454</t>
+          <t>6989654</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Milchschokolade 4x184g</t>
+          <t>Bauckhof Brownies</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-cracker-milchschokolade-4x184g/p/4921454</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies/p/6989654</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>736g</t>
-        </is>
-      </c>
-      <c r="E327" t="inlineStr"/>
+          <t>400g</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>1</v>
+      </c>
       <c r="F327" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Bauckhof</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>1.63/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -25206,7 +25204,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -25216,61 +25214,63 @@
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Milchschokolade 4x184g 37% Aktion 12.00 Schweizer Franken statt 19.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O327" t="inlineStr"/>
+          <t>Bauckhof Brownies 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="P327" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>6882167</t>
+          <t>4921454</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Rob &amp;amp; Lissy Dinkel Burger Buns</t>
+          <t>Dar-Vida Cracker Milchschokolade 4x184g</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/toastbrote-buns/rob-lissy-dinkel-burger-buns/p/6882167</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-cracker-milchschokolade-4x184g/p/4921454</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>332g</t>
-        </is>
-      </c>
-      <c r="E328" t="n">
-        <v>1</v>
-      </c>
+          <t>736g</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr"/>
       <c r="F328" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>1.05/100g</t>
+          <t>1.63/100g</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -25280,7 +25280,7 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -25290,61 +25290,61 @@
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'toastbrote-buns']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>Rob &amp;amp; Lissy Dinkel Burger Buns 3.50 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Milchschokolade 4x184g 37% Aktion 12.00 Schweizer Franken statt 19.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O328" t="inlineStr"/>
       <c r="P328" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>6601574</t>
+          <t>6882167</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Kastanien</t>
+          <t>Rob &amp;amp; Lissy Dinkel Burger Buns</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-kastanien/p/6601574</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/toastbrote-buns/rob-lissy-dinkel-burger-buns/p/6882167</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>200g</t>
+          <t>332g</t>
         </is>
       </c>
       <c r="E329" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F329" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.05/100g</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -25354,7 +25354,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -25364,22 +25364,18 @@
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'toastbrote-buns']</t>
         </is>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Kastanien 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O329" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Rob &amp;amp; Lissy Dinkel Burger Buns 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O329" t="inlineStr"/>
       <c r="P329" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -25457,50 +25453,50 @@
       </c>
       <c r="P330" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>3446126</t>
+          <t>6601574</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Old El Paso Enchilada Kit</t>
+          <t>Roland Knäckebrot Kastanien</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-enchilada-kit/p/3446126</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-kastanien/p/6601574</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>657g</t>
+          <t>200g</t>
         </is>
       </c>
       <c r="E331" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F331" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -25510,7 +25506,7 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -25520,18 +25516,22 @@
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>Old El Paso Enchilada Kit 20% ab 2 Aktion 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O331" t="inlineStr"/>
+          <t>Roland Knäckebrot Kastanien 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="P331" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -25603,7 +25603,7 @@
       <c r="O332" t="inlineStr"/>
       <c r="P332" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -25681,7 +25681,7 @@
       </c>
       <c r="P333" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -25759,7 +25759,7 @@
       </c>
       <c r="P334" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -25833,7 +25833,7 @@
       <c r="O335" t="inlineStr"/>
       <c r="P335" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -25907,7 +25907,7 @@
       <c r="O336" t="inlineStr"/>
       <c r="P336" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -25985,7 +25985,7 @@
       </c>
       <c r="P337" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -26059,7 +26059,7 @@
       <c r="O338" t="inlineStr"/>
       <c r="P338" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -26131,7 +26131,7 @@
       <c r="O339" t="inlineStr"/>
       <c r="P339" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -26209,7 +26209,7 @@
       </c>
       <c r="P340" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -26283,7 +26283,7 @@
       <c r="O341" t="inlineStr"/>
       <c r="P341" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -26357,50 +26357,50 @@
       <c r="O342" t="inlineStr"/>
       <c r="P342" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>4063481</t>
+          <t>6729406</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
+          <t>Roland Sport Banana Cranberry</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-sport-banana-cranberry/p/6729406</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>150g</t>
+          <t>135g</t>
         </is>
       </c>
       <c r="E343" t="n">
         <v>1</v>
       </c>
       <c r="F343" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>3.41/100g</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -26410,7 +26410,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -26420,61 +26420,61 @@
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.40 Schweizer Franken</t>
+          <t>Roland Sport Banana Cranberry 20% ab 2 Aktion 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O343" t="inlineStr"/>
       <c r="P343" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>6729406</t>
+          <t>6630295</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Roland Sport Banana Cranberry</t>
+          <t>Country Cracker Banane-Choco</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-sport-banana-cranberry/p/6729406</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>135g</t>
+          <t>228g</t>
         </is>
       </c>
       <c r="E344" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F344" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>3.41/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -26484,7 +26484,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -26494,61 +26494,61 @@
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>Roland Sport Banana Cranberry 20% ab 2 Aktion 4.60 Schweizer Franken</t>
+          <t>Country Cracker Banane-Choco 20% ab 2 Aktion 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O344" t="inlineStr"/>
       <c r="P344" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>6630295</t>
+          <t>4063481</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>228g</t>
+          <t>150g</t>
         </is>
       </c>
       <c r="E345" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F345" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -26558,7 +26558,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -26568,18 +26568,18 @@
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco 20% ab 2 Aktion 3.60 Schweizer Franken</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O345" t="inlineStr"/>
       <c r="P345" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -26655,7 +26655,7 @@
       </c>
       <c r="P346" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -26727,7 +26727,7 @@
       <c r="O347" t="inlineStr"/>
       <c r="P347" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -26799,7 +26799,7 @@
       <c r="O348" t="inlineStr"/>
       <c r="P348" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -26873,7 +26873,7 @@
       <c r="O349" t="inlineStr"/>
       <c r="P349" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -26947,7 +26947,7 @@
       <c r="O350" t="inlineStr"/>
       <c r="P350" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -27019,7 +27019,7 @@
       <c r="O351" t="inlineStr"/>
       <c r="P351" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -27093,7 +27093,7 @@
       <c r="O352" t="inlineStr"/>
       <c r="P352" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -27167,7 +27167,7 @@
       <c r="O353" t="inlineStr"/>
       <c r="P353" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -27241,7 +27241,7 @@
       <c r="O354" t="inlineStr"/>
       <c r="P354" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -27315,7 +27315,7 @@
       <c r="O355" t="inlineStr"/>
       <c r="P355" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -27391,7 +27391,7 @@
       </c>
       <c r="P356" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -27469,7 +27469,7 @@
       </c>
       <c r="P357" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -27545,7 +27545,7 @@
       </c>
       <c r="P358" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -27623,7 +27623,7 @@
       </c>
       <c r="P359" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -27697,7 +27697,7 @@
       <c r="O360" t="inlineStr"/>
       <c r="P360" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -27771,7 +27771,7 @@
       <c r="O361" t="inlineStr"/>
       <c r="P361" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -27843,7 +27843,7 @@
       <c r="O362" t="inlineStr"/>
       <c r="P362" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -27921,50 +27921,50 @@
       </c>
       <c r="P363" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>5824672</t>
+          <t>6150312</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Rob &amp;amp; Lissy Brownie 2x  80g</t>
+          <t>St.Michel Brownies blanc Mini</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/rob-lissy-brownie/p/5824672</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>2x 80g</t>
+          <t>240g</t>
         </is>
       </c>
       <c r="E364" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F364" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>2.44/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -27974,7 +27974,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
@@ -27989,42 +27989,42 @@
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>Rob &amp;amp; Lissy Brownie 2x  80g 3.90 Schweizer Franken</t>
+          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O364" t="inlineStr"/>
       <c r="P364" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>5995949</t>
+          <t>5824672</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Madeleines Marmor 2x220g</t>
+          <t>Rob &amp;amp; Lissy Brownie 2x  80g</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/madeleines-marmor-2x220g/p/5995949</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/rob-lissy-brownie/p/5824672</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>440g</t>
+          <t>2x 80g</t>
         </is>
       </c>
       <c r="E365" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F365" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -28033,12 +28033,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>1.07/100g</t>
+          <t>2.44/100g</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -28048,7 +28048,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -28063,13 +28063,13 @@
       </c>
       <c r="N365" t="inlineStr">
         <is>
-          <t>Madeleines Marmor 2x220g 20% Aktion 4.70 Schweizer Franken statt 5.90 Schweizer Franken</t>
+          <t>Rob &amp;amp; Lissy Brownie 2x  80g 3.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O365" t="inlineStr"/>
       <c r="P365" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -28145,50 +28145,50 @@
       </c>
       <c r="P366" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>6729458</t>
+          <t>5995949</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Roland Cracker Sport High Protein Choco</t>
+          <t>Madeleines Marmor 2x220g</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-cracker-sport-high-protein-choco/p/6729458</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/madeleines-marmor-2x220g/p/5995949</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>135g</t>
+          <t>440g</t>
         </is>
       </c>
       <c r="E367" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F367" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>3.41/100g</t>
+          <t>1.07/100g</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -28198,7 +28198,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -28208,61 +28208,61 @@
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="N367" t="inlineStr">
         <is>
-          <t>Roland Cracker Sport High Protein Choco 20% ab 2 Aktion 4.60 Schweizer Franken</t>
+          <t>Madeleines Marmor 2x220g 20% Aktion 4.70 Schweizer Franken statt 5.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O367" t="inlineStr"/>
       <c r="P367" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>6150312</t>
+          <t>6729458</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini</t>
+          <t>Roland Cracker Sport High Protein Choco</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-brownies-blanc-mini/p/6150312</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-cracker-sport-high-protein-choco/p/6729458</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>240g</t>
+          <t>135g</t>
         </is>
       </c>
       <c r="E368" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F368" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>3.41/100g</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -28272,7 +28272,7 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -28282,18 +28282,18 @@
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>St.Michel Brownies blanc Mini 3.95 Schweizer Franken</t>
+          <t>Roland Cracker Sport High Protein Choco 20% ab 2 Aktion 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O368" t="inlineStr"/>
       <c r="P368" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -28367,7 +28367,7 @@
       <c r="O369" t="inlineStr"/>
       <c r="P369" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -28441,7 +28441,7 @@
       <c r="O370" t="inlineStr"/>
       <c r="P370" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -28519,7 +28519,7 @@
       </c>
       <c r="P371" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -28597,7 +28597,7 @@
       </c>
       <c r="P372" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -28671,7 +28671,7 @@
       <c r="O373" t="inlineStr"/>
       <c r="P373" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -28745,7 +28745,7 @@
       <c r="O374" t="inlineStr"/>
       <c r="P374" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -28821,7 +28821,7 @@
       </c>
       <c r="P375" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -28895,7 +28895,7 @@
       <c r="O376" t="inlineStr"/>
       <c r="P376" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -28967,7 +28967,7 @@
       <c r="O377" t="inlineStr"/>
       <c r="P377" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -29041,7 +29041,7 @@
       <c r="O378" t="inlineStr"/>
       <c r="P378" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -29115,7 +29115,7 @@
       <c r="O379" t="inlineStr"/>
       <c r="P379" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -29189,7 +29189,7 @@
       <c r="O380" t="inlineStr"/>
       <c r="P380" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -29263,7 +29263,7 @@
       <c r="O381" t="inlineStr"/>
       <c r="P381" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -29337,7 +29337,7 @@
       <c r="O382" t="inlineStr"/>
       <c r="P382" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -29411,7 +29411,7 @@
       <c r="O383" t="inlineStr"/>
       <c r="P383" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -29489,7 +29489,7 @@
       </c>
       <c r="P384" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -29563,7 +29563,7 @@
       <c r="O385" t="inlineStr"/>
       <c r="P385" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -29639,7 +29639,7 @@
       </c>
       <c r="P386" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -29713,7 +29713,7 @@
       <c r="O387" t="inlineStr"/>
       <c r="P387" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -29787,7 +29787,7 @@
       <c r="O388" t="inlineStr"/>
       <c r="P388" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -29861,7 +29861,7 @@
       <c r="O389" t="inlineStr"/>
       <c r="P389" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -29939,7 +29939,7 @@
       </c>
       <c r="P390" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -30013,7 +30013,7 @@
       <c r="O391" t="inlineStr"/>
       <c r="P391" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -30087,7 +30087,7 @@
       <c r="O392" t="inlineStr"/>
       <c r="P392" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -30159,7 +30159,7 @@
       <c r="O393" t="inlineStr"/>
       <c r="P393" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -30237,7 +30237,7 @@
       </c>
       <c r="P394" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -30309,7 +30309,7 @@
       <c r="O395" t="inlineStr"/>
       <c r="P395" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -30383,7 +30383,7 @@
       <c r="O396" t="inlineStr"/>
       <c r="P396" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -30459,7 +30459,7 @@
       </c>
       <c r="P397" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
@@ -30531,7 +30531,7 @@
       <c r="O398" t="inlineStr"/>
       <c r="P398" t="inlineStr">
         <is>
-          <t>2022-08-02 14:36:27</t>
+          <t>2022-08-02 20:49:54</t>
         </is>
       </c>
     </row>
